--- a/biology/Botanique/Cycadaceae/Cycadaceae.xlsx
+++ b/biology/Botanique/Cycadaceae/Cycadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cycadacées (Cycadaceae) sont la famille la plus importante du groupe des Cycadales. Ces plantes, qui présentent des caractères de fougères et des feuilles semblables à celles de palmiers, sont fréquemment confondues avec ces derniers, plutôt que considérées comme de proches des conifères.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Cycas, dérivé grec κυκας / kykas, nom utilisé pour la première fois par Theophraste, qui serait une erreur de scribe pour κούκας / koikas (pluriel de koix), signifiant "palmiers", mot d'une langue pré-grecque inconnue[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Cycas, dérivé grec κυκας / kykas, nom utilisé pour la première fois par Theophraste, qui serait une erreur de scribe pour κούκας / koikas (pluriel de koix), signifiant "palmiers", mot d'une langue pré-grecque inconnue.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cycadacées ont leur tronc élancé, généralement non ramifié, ou trapu, presque sphérique. Souvent, il est couvert de couches de feuilles écailleuses disposées en spirale et à son sommet se trouve une couronne de grandes feuilles composées-pennées. Les jeunes folioles sont enroulées en crosse comme les frondes de fougères et se déploie pour forme la couronne. Les folioles des cycadacées ont une nervation une seule nervure centrale.
 Les Cycadacées sont dioïques : les cônes polliniques et les cônes ovulés sont produits par des plantes distinctes ; les cônes sont généralement plus grands que ceux des conifères, pouvant parfois atteindre plusieurs mètres de longueur.
@@ -579,7 +595,9 @@
           <t>Genre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Cycadaceae n'est composée que d'un seul genre :
 Cycas L., 1753.
@@ -613,6 +631,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
